--- a/xlsx/Raw_Sorting_Data_151102.xlsx
+++ b/xlsx/Raw_Sorting_Data_151102.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="980" windowWidth="34400" windowHeight="16820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="6" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="P6" sheetId="3" r:id="rId5"/>
     <sheet name="P6M" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -470,14 +470,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -578,16 +572,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor indexed="42"/>
@@ -614,8 +598,18 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -940,14 +934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1070,7 +1064,7 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -1078,7 +1072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1086,7 +1080,7 @@
       <selection pane="bottomLeft" activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.5" bestFit="1" customWidth="1"/>
@@ -9815,7 +9809,7 @@
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -9823,15 +9817,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.5" bestFit="1" customWidth="1"/>
@@ -20792,7 +20786,7 @@
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -20800,7 +20794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20808,7 +20802,7 @@
       <selection pane="bottomLeft" activeCell="A121" sqref="A121:XFD122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.5" bestFit="1" customWidth="1"/>
@@ -31472,7 +31466,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C1:V1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31482,7 +31476,7 @@
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -31490,7 +31484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31498,7 +31492,7 @@
       <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.5" bestFit="1" customWidth="1"/>
@@ -43314,7 +43308,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C137:V1048576 C1:V135 C136 L136 P136 S136:T136 N136">
-    <cfRule type="cellIs" dxfId="2" priority="0" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="0" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43323,7 +43317,7 @@
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -43331,15 +43325,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W829"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V160" sqref="V160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A162" sqref="A162:XFD689"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.5" bestFit="1" customWidth="1"/>
@@ -54936,1495 +54930,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="23:23">
-      <c r="W583">
-        <f t="shared" ref="W583" si="3">SUMIF(C583:V583,"&lt;&gt;",C583:V583)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="23:23">
-      <c r="W584">
-        <f t="shared" ref="W584:W647" si="4">SUMIF(C584:V584,"&lt;&gt;",C584:V584)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585" spans="23:23">
-      <c r="W585">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="23:23">
-      <c r="W586">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587" spans="23:23">
-      <c r="W587">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="23:23">
-      <c r="W588">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="23:23">
-      <c r="W589">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590" spans="23:23">
-      <c r="W590">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591" spans="23:23">
-      <c r="W591">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592" spans="23:23">
-      <c r="W592">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593" spans="23:23">
-      <c r="W593">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="23:23">
-      <c r="W594">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595" spans="23:23">
-      <c r="W595">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596" spans="23:23">
-      <c r="W596">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597" spans="23:23">
-      <c r="W597">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" spans="23:23">
-      <c r="W598">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="23:23">
-      <c r="W599">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="23:23">
-      <c r="W600">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="23:23">
-      <c r="W601">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602" spans="23:23">
-      <c r="W602">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603" spans="23:23">
-      <c r="W603">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604" spans="23:23">
-      <c r="W604">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="23:23">
-      <c r="W605">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="23:23">
-      <c r="W606">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607" spans="23:23">
-      <c r="W607">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608" spans="23:23">
-      <c r="W608">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="23:23">
-      <c r="W609">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="23:23">
-      <c r="W610">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="23:23">
-      <c r="W611">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="23:23">
-      <c r="W612">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="23:23">
-      <c r="W613">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="23:23">
-      <c r="W614">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615" spans="23:23">
-      <c r="W615">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="23:23">
-      <c r="W616">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617" spans="23:23">
-      <c r="W617">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="23:23">
-      <c r="W618">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="23:23">
-      <c r="W619">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="23:23">
-      <c r="W620">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="23:23">
-      <c r="W621">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="23:23">
-      <c r="W622">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="23:23">
-      <c r="W623">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="23:23">
-      <c r="W624">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="23:23">
-      <c r="W625">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="23:23">
-      <c r="W626">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627" spans="23:23">
-      <c r="W627">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" spans="23:23">
-      <c r="W628">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="23:23">
-      <c r="W629">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="23:23">
-      <c r="W630">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="23:23">
-      <c r="W631">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="23:23">
-      <c r="W632">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633" spans="23:23">
-      <c r="W633">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="23:23">
-      <c r="W634">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="23:23">
-      <c r="W635">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="23:23">
-      <c r="W636">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="23:23">
-      <c r="W637">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="23:23">
-      <c r="W638">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="23:23">
-      <c r="W639">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="23:23">
-      <c r="W640">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="23:23">
-      <c r="W641">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="23:23">
-      <c r="W642">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="23:23">
-      <c r="W643">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" spans="23:23">
-      <c r="W644">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645" spans="23:23">
-      <c r="W645">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="23:23">
-      <c r="W646">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647" spans="23:23">
-      <c r="W647">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" spans="23:23">
-      <c r="W648">
-        <f t="shared" ref="W648:W711" si="5">SUMIF(C648:V648,"&lt;&gt;",C648:V648)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649" spans="23:23">
-      <c r="W649">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="650" spans="23:23">
-      <c r="W650">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="651" spans="23:23">
-      <c r="W651">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="23:23">
-      <c r="W652">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653" spans="23:23">
-      <c r="W653">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" spans="23:23">
-      <c r="W654">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="655" spans="23:23">
-      <c r="W655">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="656" spans="23:23">
-      <c r="W656">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="657" spans="23:23">
-      <c r="W657">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="658" spans="23:23">
-      <c r="W658">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="659" spans="23:23">
-      <c r="W659">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="660" spans="23:23">
-      <c r="W660">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="661" spans="23:23">
-      <c r="W661">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="662" spans="23:23">
-      <c r="W662">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663" spans="23:23">
-      <c r="W663">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="664" spans="23:23">
-      <c r="W664">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="665" spans="23:23">
-      <c r="W665">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="666" spans="23:23">
-      <c r="W666">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="667" spans="23:23">
-      <c r="W667">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="668" spans="23:23">
-      <c r="W668">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="669" spans="23:23">
-      <c r="W669">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="670" spans="23:23">
-      <c r="W670">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="671" spans="23:23">
-      <c r="W671">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="672" spans="23:23">
-      <c r="W672">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="673" spans="23:23">
-      <c r="W673">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="674" spans="23:23">
-      <c r="W674">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="675" spans="23:23">
-      <c r="W675">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="676" spans="23:23">
-      <c r="W676">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="677" spans="23:23">
-      <c r="W677">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="678" spans="23:23">
-      <c r="W678">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="679" spans="23:23">
-      <c r="W679">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="680" spans="23:23">
-      <c r="W680">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="681" spans="23:23">
-      <c r="W681">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="682" spans="23:23">
-      <c r="W682">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="683" spans="23:23">
-      <c r="W683">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="684" spans="23:23">
-      <c r="W684">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685" spans="23:23">
-      <c r="W685">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="686" spans="23:23">
-      <c r="W686">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="687" spans="23:23">
-      <c r="W687">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="688" spans="23:23">
-      <c r="W688">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="689" spans="23:23">
-      <c r="W689">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690" spans="23:23">
-      <c r="W690">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691" spans="23:23">
-      <c r="W691">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="23:23">
-      <c r="W692">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="693" spans="23:23">
-      <c r="W693">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="694" spans="23:23">
-      <c r="W694">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="695" spans="23:23">
-      <c r="W695">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="696" spans="23:23">
-      <c r="W696">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697" spans="23:23">
-      <c r="W697">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="698" spans="23:23">
-      <c r="W698">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="699" spans="23:23">
-      <c r="W699">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="700" spans="23:23">
-      <c r="W700">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="701" spans="23:23">
-      <c r="W701">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="23:23">
-      <c r="W702">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="23:23">
-      <c r="W703">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="704" spans="23:23">
-      <c r="W704">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="705" spans="23:23">
-      <c r="W705">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="706" spans="23:23">
-      <c r="W706">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="707" spans="23:23">
-      <c r="W707">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="708" spans="23:23">
-      <c r="W708">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="709" spans="23:23">
-      <c r="W709">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="710" spans="23:23">
-      <c r="W710">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="711" spans="23:23">
-      <c r="W711">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="712" spans="23:23">
-      <c r="W712">
-        <f t="shared" ref="W712:W775" si="6">SUMIF(C712:V712,"&lt;&gt;",C712:V712)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="713" spans="23:23">
-      <c r="W713">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="714" spans="23:23">
-      <c r="W714">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="715" spans="23:23">
-      <c r="W715">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="716" spans="23:23">
-      <c r="W716">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="717" spans="23:23">
-      <c r="W717">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="718" spans="23:23">
-      <c r="W718">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="719" spans="23:23">
-      <c r="W719">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="720" spans="23:23">
-      <c r="W720">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="721" spans="23:23">
-      <c r="W721">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="722" spans="23:23">
-      <c r="W722">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723" spans="23:23">
-      <c r="W723">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="724" spans="23:23">
-      <c r="W724">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="725" spans="23:23">
-      <c r="W725">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="726" spans="23:23">
-      <c r="W726">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="727" spans="23:23">
-      <c r="W727">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728" spans="23:23">
-      <c r="W728">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729" spans="23:23">
-      <c r="W729">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730" spans="23:23">
-      <c r="W730">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="731" spans="23:23">
-      <c r="W731">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="732" spans="23:23">
-      <c r="W732">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733" spans="23:23">
-      <c r="W733">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="734" spans="23:23">
-      <c r="W734">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="735" spans="23:23">
-      <c r="W735">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="736" spans="23:23">
-      <c r="W736">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="737" spans="23:23">
-      <c r="W737">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="738" spans="23:23">
-      <c r="W738">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="739" spans="23:23">
-      <c r="W739">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740" spans="23:23">
-      <c r="W740">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741" spans="23:23">
-      <c r="W741">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742" spans="23:23">
-      <c r="W742">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743" spans="23:23">
-      <c r="W743">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744" spans="23:23">
-      <c r="W744">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745" spans="23:23">
-      <c r="W745">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746" spans="23:23">
-      <c r="W746">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747" spans="23:23">
-      <c r="W747">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748" spans="23:23">
-      <c r="W748">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="749" spans="23:23">
-      <c r="W749">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="750" spans="23:23">
-      <c r="W750">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="751" spans="23:23">
-      <c r="W751">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752" spans="23:23">
-      <c r="W752">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753" spans="23:23">
-      <c r="W753">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="754" spans="23:23">
-      <c r="W754">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755" spans="23:23">
-      <c r="W755">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="756" spans="23:23">
-      <c r="W756">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757" spans="23:23">
-      <c r="W757">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758" spans="23:23">
-      <c r="W758">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759" spans="23:23">
-      <c r="W759">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="760" spans="23:23">
-      <c r="W760">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761" spans="23:23">
-      <c r="W761">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="762" spans="23:23">
-      <c r="W762">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="23:23">
-      <c r="W763">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764" spans="23:23">
-      <c r="W764">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="765" spans="23:23">
-      <c r="W765">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="766" spans="23:23">
-      <c r="W766">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="767" spans="23:23">
-      <c r="W767">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="768" spans="23:23">
-      <c r="W768">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="769" spans="23:23">
-      <c r="W769">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770" spans="23:23">
-      <c r="W770">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="771" spans="23:23">
-      <c r="W771">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772" spans="23:23">
-      <c r="W772">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="773" spans="23:23">
-      <c r="W773">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="774" spans="23:23">
-      <c r="W774">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="775" spans="23:23">
-      <c r="W775">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="776" spans="23:23">
-      <c r="W776">
-        <f t="shared" ref="W776:W829" si="7">SUMIF(C776:V776,"&lt;&gt;",C776:V776)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="777" spans="23:23">
-      <c r="W777">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="778" spans="23:23">
-      <c r="W778">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="779" spans="23:23">
-      <c r="W779">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="780" spans="23:23">
-      <c r="W780">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="781" spans="23:23">
-      <c r="W781">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="782" spans="23:23">
-      <c r="W782">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="783" spans="23:23">
-      <c r="W783">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="784" spans="23:23">
-      <c r="W784">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="785" spans="23:23">
-      <c r="W785">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="786" spans="23:23">
-      <c r="W786">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="787" spans="23:23">
-      <c r="W787">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="788" spans="23:23">
-      <c r="W788">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="789" spans="23:23">
-      <c r="W789">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="790" spans="23:23">
-      <c r="W790">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="791" spans="23:23">
-      <c r="W791">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="792" spans="23:23">
-      <c r="W792">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="793" spans="23:23">
-      <c r="W793">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="794" spans="23:23">
-      <c r="W794">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="795" spans="23:23">
-      <c r="W795">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="796" spans="23:23">
-      <c r="W796">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="797" spans="23:23">
-      <c r="W797">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="798" spans="23:23">
-      <c r="W798">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="799" spans="23:23">
-      <c r="W799">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="800" spans="23:23">
-      <c r="W800">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="801" spans="23:23">
-      <c r="W801">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="802" spans="23:23">
-      <c r="W802">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="803" spans="23:23">
-      <c r="W803">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="804" spans="23:23">
-      <c r="W804">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="805" spans="23:23">
-      <c r="W805">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="806" spans="23:23">
-      <c r="W806">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="807" spans="23:23">
-      <c r="W807">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="808" spans="23:23">
-      <c r="W808">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="809" spans="23:23">
-      <c r="W809">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="810" spans="23:23">
-      <c r="W810">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="811" spans="23:23">
-      <c r="W811">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="812" spans="23:23">
-      <c r="W812">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="813" spans="23:23">
-      <c r="W813">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="814" spans="23:23">
-      <c r="W814">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="815" spans="23:23">
-      <c r="W815">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="816" spans="23:23">
-      <c r="W816">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="817" spans="23:23">
-      <c r="W817">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="818" spans="23:23">
-      <c r="W818">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="819" spans="23:23">
-      <c r="W819">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="820" spans="23:23">
-      <c r="W820">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="821" spans="23:23">
-      <c r="W821">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="822" spans="23:23">
-      <c r="W822">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="823" spans="23:23">
-      <c r="W823">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="824" spans="23:23">
-      <c r="W824">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="825" spans="23:23">
-      <c r="W825">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="826" spans="23:23">
-      <c r="W826">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="827" spans="23:23">
-      <c r="W827">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="828" spans="23:23">
-      <c r="W828">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="829" spans="23:23">
-      <c r="W829">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <sortState ref="C74:V78">
     <sortCondition descending="1" ref="C74:C78"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C1:V1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56433,7 +54945,7 @@
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
